--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_EXPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_EXPORT.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
         <v>39583</v>
       </c>
       <c r="B4">
-        <v>1.045874667975482</v>
+        <v>1.960591199849219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>39675</v>
       </c>
       <c r="B5">
-        <v>1.046012740397217</v>
+        <v>-0.2410745035013093</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>39767</v>
       </c>
       <c r="B6">
-        <v>1.046151165323522</v>
+        <v>-2.989151587480549</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>39859</v>
       </c>
       <c r="B7">
-        <v>1.445892867308032</v>
+        <v>-1.992436460080896</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>39948</v>
       </c>
       <c r="B8">
-        <v>1.234498625217455</v>
+        <v>-2.911016840458359</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>40040</v>
       </c>
       <c r="B9">
-        <v>0.7926389889695713</v>
+        <v>0.5161858965418986</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>40132</v>
       </c>
       <c r="B10">
-        <v>0.5774307083149921</v>
+        <v>3.496635313038965</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>40224</v>
       </c>
       <c r="B11">
-        <v>0.6663395013000581</v>
+        <v>2.022610195364777</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>40313</v>
       </c>
       <c r="B12">
-        <v>0.8292075001161407</v>
+        <v>4.001048740912381</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>40405</v>
       </c>
       <c r="B13">
-        <v>1.119233740021656</v>
+        <v>2.471556584906722</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>40497</v>
       </c>
       <c r="B14">
-        <v>1.123485585928023</v>
+        <v>1.809198400323567</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>40589</v>
       </c>
       <c r="B15">
-        <v>1.499459244827349</v>
+        <v>0.9930361476913703</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>40678</v>
       </c>
       <c r="B16">
-        <v>1.699999999999974</v>
+        <v>2.297598938510475</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>40770</v>
       </c>
       <c r="B17">
-        <v>1.799999999999997</v>
+        <v>1.683866211357127</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>40862</v>
       </c>
       <c r="B18">
-        <v>1.899999999999963</v>
+        <v>-0.2000000000000028</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>40954</v>
       </c>
       <c r="B19">
-        <v>1.63134579859603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>41044</v>
       </c>
       <c r="B20">
-        <v>1.715918598939155</v>
+        <v>0.4230141822949065</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>41136</v>
       </c>
       <c r="B21">
-        <v>1.91634507258496</v>
+        <v>0.1000000000000085</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>41228</v>
       </c>
       <c r="B22">
-        <v>1.916768898709549</v>
+        <v>-0.8135079514120491</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>41320</v>
       </c>
       <c r="B23">
-        <v>0.9003551961595377</v>
+        <v>0.5011757240633443</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>41409</v>
       </c>
       <c r="B24">
-        <v>1.099884565599595</v>
+        <v>1.792421234023649</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>41501</v>
       </c>
       <c r="B25">
-        <v>1.200107523035143</v>
+        <v>1.000583728414611</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>41593</v>
       </c>
       <c r="B26">
-        <v>1.199862210546272</v>
+        <v>1.700400414966595</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>41685</v>
       </c>
       <c r="B27">
-        <v>1.300666563868958</v>
+        <v>1.466172678153498</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>41774</v>
       </c>
       <c r="B28">
-        <v>1.399998577930447</v>
+        <v>1.081988526104823</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>41866</v>
       </c>
       <c r="B29">
-        <v>1.500000484182394</v>
+        <v>1.353592454001856</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>41958</v>
       </c>
       <c r="B30">
-        <v>1.600001147842804</v>
+        <v>0.4035607671893757</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>42050</v>
       </c>
       <c r="B31">
-        <v>1.371463512519668</v>
+        <v>0.9949231225214561</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>42139</v>
       </c>
       <c r="B32">
-        <v>1.385631297577646</v>
+        <v>1.476517947415175</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>42231</v>
       </c>
       <c r="B33">
-        <v>1.489507944432205</v>
+        <v>1.292287545731185</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>42323</v>
       </c>
       <c r="B34">
-        <v>1.488718727879728</v>
+        <v>0.4919486237229052</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>42415</v>
       </c>
       <c r="B35">
-        <v>1.369781572548106</v>
+        <v>1.268067508957756</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>42505</v>
       </c>
       <c r="B36">
-        <v>1.282921074986021</v>
+        <v>0.9496767498412169</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>42597</v>
       </c>
       <c r="B37">
-        <v>1.19534638469645</v>
+        <v>1.183775223599739</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>42689</v>
       </c>
       <c r="B38">
-        <v>1.139999999999986</v>
+        <v>1.014999674053939</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>42781</v>
       </c>
       <c r="B39">
-        <v>1.117352604141502</v>
+        <v>1.191228972472018</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>42870</v>
       </c>
       <c r="B40">
-        <v>1.068441551176875</v>
+        <v>1.836987253553829</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>42962</v>
       </c>
       <c r="B41">
-        <v>1.018983966766001</v>
+        <v>1.33483377666461</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>43054</v>
       </c>
       <c r="B42">
-        <v>1.011331553407885</v>
+        <v>1.622456305393911</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>43146</v>
       </c>
       <c r="B43">
-        <v>1.058422770026397</v>
+        <v>1.303119407694879</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>43235</v>
       </c>
       <c r="B44">
-        <v>1.058421480670546</v>
+        <v>0.3932797567441497</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>43327</v>
       </c>
       <c r="B45">
-        <v>1.058424945524735</v>
+        <v>1.381065482681691</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>43419</v>
       </c>
       <c r="B46">
-        <v>1.058428411515507</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43511</v>
       </c>
       <c r="B47">
-        <v>1.10756961625917</v>
+        <v>1.712723949918967</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>43600</v>
       </c>
       <c r="B48">
-        <v>1.107780377252027</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>43692</v>
       </c>
       <c r="B49">
-        <v>1.107804063256367</v>
+        <v>0.914789154762218</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>43784</v>
       </c>
       <c r="B50">
-        <v>1.107827729205653</v>
+        <v>1.152379855430368</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>43876</v>
       </c>
       <c r="B51">
-        <v>0.7527802951347269</v>
+        <v>-1.558195694240041</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>43966</v>
       </c>
       <c r="B52">
-        <v>0.7527891525800641</v>
+        <v>-24.4</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>44058</v>
       </c>
       <c r="B53">
-        <v>0.7529186780379291</v>
+        <v>12.42550598425463</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44150</v>
       </c>
       <c r="B54">
-        <v>0.7530484531064161</v>
+        <v>2.813188392915293</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44242</v>
       </c>
       <c r="B55">
-        <v>0.7565966228197709</v>
+        <v>1.806909003397877</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44331</v>
       </c>
       <c r="B56">
-        <v>0.7564229012773325</v>
+        <v>1.087285196410733</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44423</v>
       </c>
       <c r="B57">
-        <v>0.7568914248753629</v>
+        <v>1.450779288666709</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44515</v>
       </c>
       <c r="B58">
-        <v>0.7573615118967183</v>
+        <v>0.368631518524424</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44607</v>
       </c>
       <c r="B59">
-        <v>0.8690066415474718</v>
+        <v>-2.021680416268424</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44696</v>
       </c>
       <c r="B60">
-        <v>0.8112840917198412</v>
+        <v>1.118165634023697</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44788</v>
       </c>
       <c r="B61">
-        <v>0.7550732564476732</v>
+        <v>0.1289585187160185</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44880</v>
       </c>
       <c r="B62">
-        <v>0.7555372519599075</v>
+        <v>-0.4259770459179748</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44972</v>
       </c>
       <c r="B63">
-        <v>0.8460994700169095</v>
+        <v>-0.6379881427730965</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>45061</v>
       </c>
       <c r="B64">
-        <v>0.8472120198269977</v>
+        <v>-0.04993664583679447</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>45153</v>
       </c>
       <c r="B65">
-        <v>0.8476002886976204</v>
+        <v>0.3662234592800075</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>45245</v>
       </c>
       <c r="B66">
-        <v>0.8479897310629241</v>
+        <v>-1.023919595764212</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>45337</v>
       </c>
       <c r="B67">
-        <v>1.096968169662631</v>
+        <v>-0.2547854660834332</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>45427</v>
       </c>
       <c r="B68">
-        <v>0.6469136025130808</v>
+        <v>1.565950786385088</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>45519</v>
       </c>
       <c r="B69">
-        <v>0.6473017371662735</v>
+        <v>-0.2475555093771362</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>45611</v>
       </c>
       <c r="B70">
-        <v>0.6476910495457417</v>
+        <v>0.386705041387188</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>45703</v>
       </c>
       <c r="B71">
-        <v>0.7627636790512184</v>
+        <v>-0.6950112442994083</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>45792</v>
       </c>
       <c r="B72">
-        <v>0.76226945697681</v>
+        <v>-0.3135696110003181</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,79 +970,7 @@
         <v>45884</v>
       </c>
       <c r="B73">
-        <v>0.7624163706171743</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
-        <v>45976</v>
-      </c>
-      <c r="B74">
-        <v>0.7625635396549626</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
-        <v>46068</v>
-      </c>
-      <c r="B75">
-        <v>0.5723834558118739</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
-        <v>46157</v>
-      </c>
-      <c r="B76">
-        <v>0.5000000000000142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
-        <v>46249</v>
-      </c>
-      <c r="B77">
-        <v>0.4233226569284341</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
-        <v>46341</v>
-      </c>
-      <c r="B78">
-        <v>0.3700213942127988</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
-        <v>46433</v>
-      </c>
-      <c r="B79">
-        <v>0.2062553876482696</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
-        <v>46522</v>
-      </c>
-      <c r="B80">
-        <v>0.2038040215726227</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
-        <v>46614</v>
-      </c>
-      <c r="B81">
-        <v>0.2041108595618084</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
-        <v>46706</v>
-      </c>
-      <c r="B82">
-        <v>0.2044182848009513</v>
+        <v>-0.02110736963342674</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_EXPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_EXPORT.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,578 +399,418 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39401</v>
+        <v>39400</v>
       </c>
       <c r="B2">
-        <v>0.9356920089934135</v>
+        <v>0.7960900427496256</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>39493</v>
+        <v>39583</v>
       </c>
       <c r="B3">
-        <v>1.046072090605833</v>
+        <v>2.427463180990628</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B4">
-        <v>1.960591199849219</v>
+        <v>-0.2156301208428602</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>39675</v>
+        <v>39948</v>
       </c>
       <c r="B5">
-        <v>-0.2410745035013093</v>
+        <v>-9.679894544238294</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>39767</v>
+        <v>40130</v>
       </c>
       <c r="B6">
-        <v>-2.989151587480549</v>
+        <v>-0.8195522748085864</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>39859</v>
+        <v>40310</v>
       </c>
       <c r="B7">
-        <v>-1.992436460080896</v>
+        <v>2.274906658561562</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>39948</v>
+        <v>40494</v>
       </c>
       <c r="B8">
-        <v>-2.911016840458359</v>
+        <v>7.912074126222677</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>40040</v>
+        <v>40676</v>
       </c>
       <c r="B9">
-        <v>0.5161858965418986</v>
+        <v>1.840273951972307</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>40132</v>
+        <v>40862</v>
       </c>
       <c r="B10">
-        <v>3.496635313038965</v>
+        <v>2.530590017523977</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>40224</v>
+        <v>41044</v>
       </c>
       <c r="B11">
-        <v>2.022610195364777</v>
+        <v>1.726328558848905</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>40313</v>
+        <v>41228</v>
       </c>
       <c r="B12">
-        <v>4.001048740912381</v>
+        <v>1.446992732417414</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>40405</v>
+        <v>41409</v>
       </c>
       <c r="B13">
-        <v>2.471556584906722</v>
+        <v>-1.803419669653366</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>40497</v>
+        <v>41592</v>
       </c>
       <c r="B14">
-        <v>1.809198400323567</v>
+        <v>2.429152676597084</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>40589</v>
+        <v>41774</v>
       </c>
       <c r="B15">
-        <v>0.9930361476913703</v>
+        <v>0.1648657400322122</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>40678</v>
+        <v>41957</v>
       </c>
       <c r="B16">
-        <v>2.297598938510475</v>
+        <v>1.153911995371715</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>40770</v>
+        <v>42137</v>
       </c>
       <c r="B17">
-        <v>1.683866211357127</v>
+        <v>0.9978838984052771</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>40862</v>
+        <v>42321</v>
       </c>
       <c r="B18">
-        <v>-0.2000000000000028</v>
+        <v>1.7958205029814</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>40954</v>
+        <v>42503</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-0.6421078521012049</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>41044</v>
+        <v>42689</v>
       </c>
       <c r="B20">
-        <v>0.4230141822949065</v>
+        <v>-0.4018974900578201</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>41136</v>
+        <v>42867</v>
       </c>
       <c r="B21">
-        <v>0.1000000000000085</v>
+        <v>1.682996656587392</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>41228</v>
+        <v>43053</v>
       </c>
       <c r="B22">
-        <v>-0.8135079514120491</v>
+        <v>1.044515111522799</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>41320</v>
+        <v>43145</v>
       </c>
       <c r="B23">
-        <v>0.5011757240633443</v>
+        <v>1.750939777838624</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>41409</v>
+        <v>43235</v>
       </c>
       <c r="B24">
-        <v>1.792421234023649</v>
+        <v>-1.040686374073175</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>41501</v>
+        <v>43326</v>
       </c>
       <c r="B25">
-        <v>1.000583728414611</v>
+        <v>-0.2631342424776193</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>41593</v>
+        <v>43418</v>
       </c>
       <c r="B26">
-        <v>1.700400414966595</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>41685</v>
+        <v>43510</v>
       </c>
       <c r="B27">
-        <v>1.466172678153498</v>
+        <v>-0.8578072826671388</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>41774</v>
+        <v>43600</v>
       </c>
       <c r="B28">
-        <v>1.081988526104823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>41866</v>
+        <v>43691</v>
       </c>
       <c r="B29">
-        <v>1.353592454001856</v>
+        <v>1.83469776744667</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>41958</v>
+        <v>43783</v>
       </c>
       <c r="B30">
-        <v>0.4035607671893757</v>
+        <v>-1.25257285039946</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>42050</v>
+        <v>43875</v>
       </c>
       <c r="B31">
-        <v>0.9949231225214561</v>
+        <v>0.9704313550711277</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>42139</v>
+        <v>43966</v>
       </c>
       <c r="B32">
-        <v>1.476517947415175</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>42231</v>
+        <v>44068</v>
       </c>
       <c r="B33">
-        <v>1.292287545731185</v>
+        <v>-20.33630385521235</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>42323</v>
+        <v>44159</v>
       </c>
       <c r="B34">
-        <v>0.4919486237229052</v>
+        <v>18.14253003720006</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>42415</v>
+        <v>44251</v>
       </c>
       <c r="B35">
-        <v>1.268067508957756</v>
+        <v>4.544557841334466</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>42505</v>
+        <v>44341</v>
       </c>
       <c r="B36">
-        <v>0.9496767498412169</v>
+        <v>1.849039957006937</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>42597</v>
+        <v>44432</v>
       </c>
       <c r="B37">
-        <v>1.183775223599739</v>
+        <v>0.5397909189180297</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>42689</v>
+        <v>44525</v>
       </c>
       <c r="B38">
-        <v>1.014999674053939</v>
+        <v>-0.9815688985294599</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>42781</v>
+        <v>44617</v>
       </c>
       <c r="B39">
-        <v>1.191228972472018</v>
+        <v>4.784172743600905</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>42870</v>
+        <v>44706</v>
       </c>
       <c r="B40">
-        <v>1.836987253553829</v>
+        <v>-2.12351799362105</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>42962</v>
+        <v>44798</v>
       </c>
       <c r="B41">
-        <v>1.33483377666461</v>
+        <v>0.2867860097325945</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>43054</v>
+        <v>44890</v>
       </c>
       <c r="B42">
-        <v>1.622456305393911</v>
+        <v>1.982042055103904</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>43146</v>
+        <v>44981</v>
       </c>
       <c r="B43">
-        <v>1.303119407694879</v>
+        <v>-0.9572753870817365</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>43235</v>
+        <v>45071</v>
       </c>
       <c r="B44">
-        <v>0.3932797567441497</v>
+        <v>0.4216256340467766</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>43327</v>
+        <v>45163</v>
       </c>
       <c r="B45">
-        <v>1.381065482681691</v>
+        <v>-1.083093549703378</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>43419</v>
+        <v>45254</v>
       </c>
       <c r="B46">
-        <v>0.7</v>
+        <v>-0.756372051364167</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>43511</v>
+        <v>45345</v>
       </c>
       <c r="B47">
-        <v>1.712723949918967</v>
+        <v>-1.594471108675521</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>43600</v>
+        <v>45436</v>
       </c>
       <c r="B48">
-        <v>-0.9</v>
+        <v>1.08522880488573</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>43692</v>
+        <v>45534</v>
       </c>
       <c r="B49">
-        <v>0.914789154762218</v>
+        <v>-0.150193889177217</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>43784</v>
+        <v>45618</v>
       </c>
       <c r="B50">
-        <v>1.152379855430368</v>
+        <v>-1.874498177919662</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>43876</v>
+        <v>45713</v>
       </c>
       <c r="B51">
-        <v>-1.558195694240041</v>
+        <v>-2.24094337053269</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>43966</v>
+        <v>45800</v>
       </c>
       <c r="B52">
-        <v>-24.4</v>
+        <v>3.234504069499366</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>44058</v>
+        <v>45891</v>
       </c>
       <c r="B53">
-        <v>12.42550598425463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B54">
-        <v>2.813188392915293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B55">
-        <v>1.806909003397877</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
-        <v>44331</v>
-      </c>
-      <c r="B56">
-        <v>1.087285196410733</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B57">
-        <v>1.450779288666709</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
-        <v>44515</v>
-      </c>
-      <c r="B58">
-        <v>0.368631518524424</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
-        <v>44607</v>
-      </c>
-      <c r="B59">
-        <v>-2.021680416268424</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
-        <v>44696</v>
-      </c>
-      <c r="B60">
-        <v>1.118165634023697</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
-        <v>44788</v>
-      </c>
-      <c r="B61">
-        <v>0.1289585187160185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
-        <v>44880</v>
-      </c>
-      <c r="B62">
-        <v>-0.4259770459179748</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
-        <v>44972</v>
-      </c>
-      <c r="B63">
-        <v>-0.6379881427730965</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
-        <v>45061</v>
-      </c>
-      <c r="B64">
-        <v>-0.04993664583679447</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
-        <v>45153</v>
-      </c>
-      <c r="B65">
-        <v>0.3662234592800075</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
-        <v>45245</v>
-      </c>
-      <c r="B66">
-        <v>-1.023919595764212</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
-        <v>45337</v>
-      </c>
-      <c r="B67">
-        <v>-0.2547854660834332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
-        <v>45427</v>
-      </c>
-      <c r="B68">
-        <v>1.565950786385088</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
-        <v>45519</v>
-      </c>
-      <c r="B69">
-        <v>-0.2475555093771362</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
-        <v>45611</v>
-      </c>
-      <c r="B70">
-        <v>0.386705041387188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
-        <v>45703</v>
-      </c>
-      <c r="B71">
-        <v>-0.6950112442994083</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
-        <v>45792</v>
-      </c>
-      <c r="B72">
-        <v>-0.3135696110003181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B73">
-        <v>-0.02110736963342674</v>
+        <v>-0.1262090121580286</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_EXPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_EXPORT.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>value</t>
+    <t>first_release_value</t>
   </si>
   <si>
     <t>date</t>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,418 +399,666 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>38398</v>
       </c>
       <c r="B2">
-        <v>0.7960900427496256</v>
+        <v>2.129035685702092</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>38487</v>
       </c>
       <c r="B3">
-        <v>2.427463180990628</v>
+        <v>2.893366588103589</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>38579</v>
       </c>
       <c r="B4">
-        <v>-0.2156301208428602</v>
+        <v>2.955627504208366</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>38671</v>
       </c>
       <c r="B5">
-        <v>-9.679894544238294</v>
+        <v>1.167401765354654</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>38763</v>
       </c>
       <c r="B6">
-        <v>-0.8195522748085864</v>
+        <v>4.89920306769092</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>38852</v>
       </c>
       <c r="B7">
-        <v>2.274906658561562</v>
+        <v>1.757302400870174</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>38944</v>
       </c>
       <c r="B8">
-        <v>7.912074126222677</v>
+        <v>3.311126880990756</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>39036</v>
       </c>
       <c r="B9">
-        <v>1.840273951972307</v>
+        <v>5.317531793333302</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>39128</v>
       </c>
       <c r="B10">
-        <v>2.530590017523977</v>
+        <v>-0.3124417888986386</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>39217</v>
       </c>
       <c r="B11">
-        <v>1.726328558848905</v>
+        <v>0.7960900427496256</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>39309</v>
       </c>
       <c r="B12">
-        <v>1.446992732417414</v>
+        <v>3.053483582409172</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>39401</v>
       </c>
       <c r="B13">
-        <v>-1.803419669653366</v>
+        <v>1.262446517965742</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>39493</v>
       </c>
       <c r="B14">
-        <v>2.429152676597084</v>
+        <v>2.427463180990628</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>39583</v>
       </c>
       <c r="B15">
-        <v>0.1648657400322122</v>
+        <v>-0.2156301208428602</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>39675</v>
       </c>
       <c r="B16">
-        <v>1.153911995371715</v>
+        <v>-0.3737946170534627</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>39767</v>
       </c>
       <c r="B17">
-        <v>0.9978838984052771</v>
+        <v>-8.061199066098098</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>39859</v>
       </c>
       <c r="B18">
-        <v>1.7958205029814</v>
+        <v>-9.679894544238294</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>39948</v>
       </c>
       <c r="B19">
-        <v>-0.6421078521012049</v>
+        <v>-0.8195522748085864</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>40040</v>
       </c>
       <c r="B20">
-        <v>-0.4018974900578201</v>
+        <v>3.376547379332465</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>40132</v>
       </c>
       <c r="B21">
-        <v>1.682996656587392</v>
+        <v>2.274906658561562</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>40224</v>
       </c>
       <c r="B22">
-        <v>1.044515111522799</v>
+        <v>2.608522136020966</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>40313</v>
       </c>
       <c r="B23">
-        <v>1.750939777838624</v>
+        <v>7.912074126222677</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>40405</v>
       </c>
       <c r="B24">
-        <v>-1.040686374073175</v>
+        <v>2.327131657487215</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>40497</v>
       </c>
       <c r="B25">
-        <v>-0.2631342424776193</v>
+        <v>1.840273951972307</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>40589</v>
       </c>
       <c r="B26">
-        <v>0.8</v>
+        <v>2.315788057256768</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>40678</v>
       </c>
       <c r="B27">
-        <v>-0.8578072826671388</v>
+        <v>2.755574095503576</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>40770</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2.530590017523977</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>40862</v>
       </c>
       <c r="B29">
-        <v>1.83469776744667</v>
+        <v>-1.487154252625388</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>40954</v>
       </c>
       <c r="B30">
-        <v>-1.25257285039946</v>
+        <v>1.726328558848905</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>41044</v>
       </c>
       <c r="B31">
-        <v>0.9704313550711277</v>
+        <v>3.275910395958846</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>41136</v>
       </c>
       <c r="B32">
-        <v>-3.1</v>
+        <v>1.446992732417414</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>41228</v>
       </c>
       <c r="B33">
-        <v>-20.33630385521235</v>
+        <v>-2.418840888438723</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>41320</v>
       </c>
       <c r="B34">
-        <v>18.14253003720006</v>
+        <v>-1.803419669653366</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>41409</v>
       </c>
       <c r="B35">
-        <v>4.544557841334466</v>
+        <v>2.429152676597084</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>41501</v>
       </c>
       <c r="B36">
-        <v>1.849039957006937</v>
+        <v>0.07763982310385131</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>41593</v>
       </c>
       <c r="B37">
-        <v>0.5397909189180297</v>
+        <v>2.46356965656642</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>41685</v>
       </c>
       <c r="B38">
-        <v>-0.9815688985294599</v>
+        <v>0.1648657400322122</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>41774</v>
       </c>
       <c r="B39">
-        <v>4.784172743600905</v>
+        <v>1.153911995371715</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>41866</v>
       </c>
       <c r="B40">
-        <v>-2.12351799362105</v>
+        <v>1.946997568649863</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>41958</v>
       </c>
       <c r="B41">
-        <v>0.2867860097325945</v>
+        <v>0.9978838984052771</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>42050</v>
       </c>
       <c r="B42">
-        <v>1.982042055103904</v>
+        <v>0.8038113817623582</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>42139</v>
       </c>
       <c r="B43">
-        <v>-0.9572753870817365</v>
+        <v>1.7958205029814</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>42231</v>
       </c>
       <c r="B44">
-        <v>0.4216256340467766</v>
+        <v>0.2175014152489467</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>42323</v>
       </c>
       <c r="B45">
-        <v>-1.083093549703378</v>
+        <v>-0.6421078521012049</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>42415</v>
       </c>
       <c r="B46">
-        <v>-0.756372051364167</v>
+        <v>0.9774607232901644</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>42505</v>
       </c>
       <c r="B47">
-        <v>-1.594471108675521</v>
+        <v>1.244614153452133</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>42597</v>
       </c>
       <c r="B48">
-        <v>1.08522880488573</v>
+        <v>-0.4018974900578201</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>42689</v>
       </c>
       <c r="B49">
-        <v>-0.150193889177217</v>
+        <v>1.682996656587392</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>42781</v>
       </c>
       <c r="B50">
-        <v>-1.874498177919662</v>
+        <v>1.289917584994839</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>42870</v>
       </c>
       <c r="B51">
-        <v>-2.24094337053269</v>
+        <v>1.044515111522799</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>42962</v>
       </c>
       <c r="B52">
-        <v>3.234504069499366</v>
+        <v>1.660004389679614</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45891</v>
+        <v>43054</v>
       </c>
       <c r="B53">
-        <v>-0.1262090121580286</v>
+        <v>2.736978867984959</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>43146</v>
+      </c>
+      <c r="B54">
+        <v>-1.040686374073175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B55">
+        <v>0.6815662815033505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B56">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B57">
+        <v>0.6525912658484003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B59">
+        <v>-1.346768218203209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>43692</v>
+      </c>
+      <c r="B60">
+        <v>1.041951863927608</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B61">
+        <v>-0.2335361222581156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B62">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B63">
+        <v>-20.33630385521235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B64">
+        <v>12.42550598425463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B65">
+        <v>2.813188392915293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B66">
+        <v>1.806909003397877</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B67">
+        <v>1.087285196410733</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B68">
+        <v>1.450779288666709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B69">
+        <v>0.368631518524424</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B70">
+        <v>-2.021680416268424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B71">
+        <v>1.118165634023697</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B72">
+        <v>0.1289585187160185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B73">
+        <v>-0.4259770459179748</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B74">
+        <v>-0.6379881427730965</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B75">
+        <v>-0.04993664583679447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B76">
+        <v>0.3662234592800075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B77">
+        <v>-1.023919595764212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B78">
+        <v>-0.2547854660834332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B79">
+        <v>1.565950786385088</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
+        <v>45519</v>
+      </c>
+      <c r="B80">
+        <v>-0.2475555093771362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B81">
+        <v>0.386705041387188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>45703</v>
+      </c>
+      <c r="B82">
+        <v>-0.6950112442994083</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>45792</v>
+      </c>
+      <c r="B83">
+        <v>-0.3135696110003181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B84">
+        <v>-0.02110736963342674</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_EXPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_EXPORT.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>44058</v>
       </c>
       <c r="B64">
-        <v>12.42550598425463</v>
+        <v>18.14253003720006</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44150</v>
       </c>
       <c r="B65">
-        <v>2.813188392915293</v>
+        <v>4.544557841334466</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44242</v>
       </c>
       <c r="B66">
-        <v>1.806909003397877</v>
+        <v>1.849039957006937</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44331</v>
       </c>
       <c r="B67">
-        <v>1.087285196410733</v>
+        <v>0.5397909189180297</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44423</v>
       </c>
       <c r="B68">
-        <v>1.450779288666709</v>
+        <v>-0.9815688985294599</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44515</v>
       </c>
       <c r="B69">
-        <v>0.368631518524424</v>
+        <v>4.784172743600905</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44607</v>
       </c>
       <c r="B70">
-        <v>-2.021680416268424</v>
+        <v>-2.12351799362105</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44696</v>
       </c>
       <c r="B71">
-        <v>1.118165634023697</v>
+        <v>0.2867860097325945</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44788</v>
       </c>
       <c r="B72">
-        <v>0.1289585187160185</v>
+        <v>1.982042055103904</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44880</v>
       </c>
       <c r="B73">
-        <v>-0.4259770459179748</v>
+        <v>-0.9572753870817365</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44972</v>
       </c>
       <c r="B74">
-        <v>-0.6379881427730965</v>
+        <v>0.4216256340467766</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>45061</v>
       </c>
       <c r="B75">
-        <v>-0.04993664583679447</v>
+        <v>-1.083093549703378</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>45153</v>
       </c>
       <c r="B76">
-        <v>0.3662234592800075</v>
+        <v>-0.756372051364167</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>45245</v>
       </c>
       <c r="B77">
-        <v>-1.023919595764212</v>
+        <v>-1.594471108675521</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>45337</v>
       </c>
       <c r="B78">
-        <v>-0.2547854660834332</v>
+        <v>1.08522880488573</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>45427</v>
       </c>
       <c r="B79">
-        <v>1.565950786385088</v>
+        <v>-0.150193889177217</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>45519</v>
       </c>
       <c r="B80">
-        <v>-0.2475555093771362</v>
+        <v>-1.874498177919662</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>45611</v>
       </c>
       <c r="B81">
-        <v>0.386705041387188</v>
+        <v>-2.24094337053269</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>45703</v>
       </c>
       <c r="B82">
-        <v>-0.6950112442994083</v>
+        <v>3.234504069499366</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,15 +1050,7 @@
         <v>45792</v>
       </c>
       <c r="B83">
-        <v>-0.3135696110003181</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B84">
-        <v>-0.02110736963342674</v>
+        <v>-0.1262090121580286</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_EXPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_EXPORT.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,6 +1053,14 @@
         <v>-0.1262090121580286</v>
       </c>
     </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B84">
+        <v>-0.7196185376451893</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
